--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W5_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W5_H200_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5361216730038023</v>
+        <v>0.546875</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3835616438356164</v>
+        <v>0.3125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7580645161290323</v>
+        <v>0.9408602150537635</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1866666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5029761904761905</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6280623608017818</v>
+        <v>0.691699604743083</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4672619047619048</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.072180658218257</v>
+        <v>0.1024827840181311</v>
       </c>
       <c r="J2" t="n">
-        <v>959.9474060795319</v>
+        <v>1336.599459894384</v>
       </c>
       <c r="K2" t="n">
-        <v>1454692.232161003</v>
+        <v>2578186.800995414</v>
       </c>
       <c r="L2" t="n">
-        <v>1206.106227560824</v>
+        <v>1605.673317021683</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7319175246678242</v>
+        <v>0.5248708392064221</v>
       </c>
     </row>
   </sheetData>
